--- a/ORG_SCHOOL.xlsx
+++ b/ORG_SCHOOL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3954F-52E1-4171-A5C2-D7A5099484C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4414F-4FEC-4631-961B-BBCCC5F8DF07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t>ORG_SCH_PK</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>รร.ตท.</t>
+  </si>
+  <si>
+    <t>ORG_SCH_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_SCH_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_SCH_STATUS</t>
   </si>
 </sst>
 </file>
@@ -706,20 +715,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="3" width="36.81640625" customWidth="1"/>
-    <col min="4" max="11" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="11" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,8 +738,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25501</v>
       </c>
@@ -741,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25502</v>
       </c>
@@ -752,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25503</v>
       </c>
@@ -763,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25504</v>
       </c>
@@ -774,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25505</v>
       </c>
@@ -785,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25506</v>
       </c>
@@ -796,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25507</v>
       </c>
@@ -807,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25508</v>
       </c>
@@ -818,7 +836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25509</v>
       </c>
@@ -829,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25510</v>
       </c>
@@ -840,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25511</v>
       </c>
@@ -851,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25512</v>
       </c>
@@ -862,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25513</v>
       </c>
@@ -873,7 +891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25514</v>
       </c>
@@ -884,7 +902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25515</v>
       </c>
@@ -895,7 +913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>25516</v>
       </c>
@@ -906,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25517</v>
       </c>
@@ -917,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25518</v>
       </c>
@@ -928,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>25519</v>
       </c>
@@ -939,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25520</v>
       </c>
@@ -950,7 +968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>25521</v>
       </c>
@@ -961,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25522</v>
       </c>
@@ -972,7 +990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25523</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25524</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25525</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25526</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25527</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25528</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25529</v>
       </c>
@@ -1049,7 +1067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>25530</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25531</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25532</v>
       </c>
@@ -1082,7 +1100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>25533</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>25534</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25535</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25536</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25537</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25538</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25539</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25540</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25541</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25542</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>25543</v>
       </c>
@@ -1203,7 +1221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>25544</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>25545</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>25546</v>
       </c>
@@ -1236,7 +1254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25547</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>25548</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>25549</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>25550</v>
       </c>
@@ -1280,7 +1298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>25551</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25552</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>25553</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>25554</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>25555</v>
       </c>
@@ -1335,7 +1353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>25556</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25557</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>25558</v>
       </c>
@@ -1365,7 +1383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>25559</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>25560</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>25561</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>25562</v>
       </c>
@@ -1409,7 +1427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>25563</v>
       </c>
@@ -1420,7 +1438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>25564</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>25565</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>25566</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>25567</v>
       </c>
@@ -1464,7 +1482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>25568</v>
       </c>
@@ -1472,7 +1490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>25569</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>25570</v>
       </c>
@@ -1494,112 +1512,112 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
